--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt6</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt6</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071697</v>
+        <v>0.1693853333333334</v>
       </c>
       <c r="H2">
-        <v>0.215091</v>
+        <v>0.5081560000000001</v>
       </c>
       <c r="I2">
-        <v>0.6442936736161036</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="J2">
-        <v>0.6442936736161035</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>0.092180092031</v>
+        <v>0.1243170341551111</v>
       </c>
       <c r="R2">
-        <v>0.829620828279</v>
+        <v>1.118853307396</v>
       </c>
       <c r="S2">
-        <v>0.03490139808665984</v>
+        <v>0.03347143667792117</v>
       </c>
       <c r="T2">
-        <v>0.03490139808665984</v>
+        <v>0.03347143667792116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071697</v>
+        <v>0.1693853333333334</v>
       </c>
       <c r="H3">
-        <v>0.215091</v>
+        <v>0.5081560000000001</v>
       </c>
       <c r="I3">
-        <v>0.6442936736161036</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="J3">
-        <v>0.6442936736161035</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
-        <v>0.5657386575359999</v>
+        <v>1.336566817109333</v>
       </c>
       <c r="R3">
-        <v>5.091647917823999</v>
+        <v>12.029101353984</v>
       </c>
       <c r="S3">
-        <v>0.2142010239373185</v>
+        <v>0.3598606730664705</v>
       </c>
       <c r="T3">
-        <v>0.2142010239373185</v>
+        <v>0.3598606730664705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071697</v>
+        <v>0.1693853333333334</v>
       </c>
       <c r="H4">
-        <v>0.215091</v>
+        <v>0.5081560000000001</v>
       </c>
       <c r="I4">
-        <v>0.6442936736161036</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="J4">
-        <v>0.6442936736161035</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>0.4686541561189999</v>
+        <v>0.8425241160062225</v>
       </c>
       <c r="R4">
-        <v>4.217887405070999</v>
+        <v>7.582717044056001</v>
       </c>
       <c r="S4">
-        <v>0.1774427092367853</v>
+        <v>0.2268433508744896</v>
       </c>
       <c r="T4">
-        <v>0.1774427092367853</v>
+        <v>0.2268433508744896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.071697</v>
+        <v>0.1693853333333334</v>
       </c>
       <c r="H5">
-        <v>0.215091</v>
+        <v>0.5081560000000001</v>
       </c>
       <c r="I5">
-        <v>0.6442936736161036</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="J5">
-        <v>0.6442936736161035</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>0.180408627806</v>
+        <v>0.3536169523626667</v>
       </c>
       <c r="R5">
-        <v>1.623677650254</v>
+        <v>3.182552571264</v>
       </c>
       <c r="S5">
-        <v>0.06830665058576585</v>
+        <v>0.09520873394130791</v>
       </c>
       <c r="T5">
-        <v>0.06830665058576584</v>
+        <v>0.0952087339413079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.071697</v>
+        <v>0.1693853333333334</v>
       </c>
       <c r="H6">
-        <v>0.215091</v>
+        <v>0.5081560000000001</v>
       </c>
       <c r="I6">
-        <v>0.6442936736161036</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="J6">
-        <v>0.6442936736161035</v>
+        <v>0.936523909045002</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N6">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q6">
-        <v>0.394699584882</v>
+        <v>0.8213401086782224</v>
       </c>
       <c r="R6">
-        <v>3.552296263938</v>
+        <v>7.392060978104001</v>
       </c>
       <c r="S6">
-        <v>0.149441891769574</v>
+        <v>0.2211397144848129</v>
       </c>
       <c r="T6">
-        <v>0.149441891769574</v>
+        <v>0.2211397144848129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.039583</v>
+        <v>0.01148066666666667</v>
       </c>
       <c r="H7">
-        <v>0.118749</v>
+        <v>0.034442</v>
       </c>
       <c r="I7">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="J7">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N7">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q7">
-        <v>0.05089145407566666</v>
+        <v>0.008426009513555556</v>
       </c>
       <c r="R7">
-        <v>0.4580230866810001</v>
+        <v>0.075834085622</v>
       </c>
       <c r="S7">
-        <v>0.01926861710342492</v>
+        <v>0.002268640382207355</v>
       </c>
       <c r="T7">
-        <v>0.01926861710342492</v>
+        <v>0.002268640382207354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.039583</v>
+        <v>0.01148066666666667</v>
       </c>
       <c r="H8">
-        <v>0.118749</v>
+        <v>0.034442</v>
       </c>
       <c r="I8">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="J8">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q8">
-        <v>0.312337103104</v>
+        <v>0.09059035869866666</v>
       </c>
       <c r="R8">
-        <v>2.811033927936</v>
+        <v>0.815313228288</v>
       </c>
       <c r="S8">
-        <v>0.118257655557567</v>
+        <v>0.02439078019693829</v>
       </c>
       <c r="T8">
-        <v>0.118257655557567</v>
+        <v>0.02439078019693829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.039583</v>
+        <v>0.01148066666666667</v>
       </c>
       <c r="H9">
-        <v>0.118749</v>
+        <v>0.034442</v>
       </c>
       <c r="I9">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="J9">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N9">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O9">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P9">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q9">
-        <v>0.2587379871076667</v>
+        <v>0.05710493549911112</v>
       </c>
       <c r="R9">
-        <v>2.328641883969</v>
+        <v>0.513944419492</v>
       </c>
       <c r="S9">
-        <v>0.09796385845599778</v>
+        <v>0.01537507909149783</v>
       </c>
       <c r="T9">
-        <v>0.09796385845599782</v>
+        <v>0.01537507909149782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.039583</v>
+        <v>0.01148066666666667</v>
       </c>
       <c r="H10">
-        <v>0.118749</v>
+        <v>0.034442</v>
       </c>
       <c r="I10">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="J10">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N10">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q10">
-        <v>0.09960130430066667</v>
+        <v>0.02396759080533333</v>
       </c>
       <c r="R10">
-        <v>0.8964117387060001</v>
+        <v>0.215708317248</v>
       </c>
       <c r="S10">
-        <v>0.03771123129470368</v>
+        <v>0.006453095534455023</v>
       </c>
       <c r="T10">
-        <v>0.03771123129470368</v>
+        <v>0.006453095534455022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.039583</v>
+        <v>0.01148066666666667</v>
       </c>
       <c r="H11">
-        <v>0.118749</v>
+        <v>0.034442</v>
       </c>
       <c r="I11">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="J11">
-        <v>0.3557063263838965</v>
+        <v>0.06347609095499798</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N11">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O11">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P11">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q11">
-        <v>0.217908610798</v>
+        <v>0.05566911740311112</v>
       </c>
       <c r="R11">
-        <v>1.961177497182</v>
+        <v>0.501022056628</v>
       </c>
       <c r="S11">
-        <v>0.0825049639722031</v>
+        <v>0.01498849574989949</v>
       </c>
       <c r="T11">
-        <v>0.08250496397220312</v>
+        <v>0.01498849574989949</v>
       </c>
     </row>
   </sheetData>
